--- a/biology/Médecine/Diffusion_alvéolo-capillaire/Diffusion_alvéolo-capillaire.xlsx
+++ b/biology/Médecine/Diffusion_alvéolo-capillaire/Diffusion_alvéolo-capillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diffusion_alv%C3%A9olo-capillaire</t>
+          <t>Diffusion_alvéolo-capillaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>C'est le transfert de gaz à travers la membrane alvéolo-capillaire, quel que soit le sens des échanges.
 La Diffusion alvéolo-capillaire est influencée par six facteurs qui influent sur les échanges gazeux d'O2 et de CO2 entre le sang et les alvéoles pulmonaires, au niveau cellulaire.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diffusion_alv%C3%A9olo-capillaire</t>
+          <t>Diffusion_alvéolo-capillaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les échanges se font par une diffusion passive selon un gradient de pression entre le sang capillaire et l'air alvéolaire. L'O2 diffuse vers le capillaire alors que le CO2 diffuse vers l'alvéole.
